--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/IZMO Ltd/Pruned_Excel/Pruned_Year_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/IZMO Ltd/Pruned_Excel/Pruned_Year_combined.xlsx
@@ -1,267 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
-  <si>
-    <t>Yearly Results of IZMO(in Rs. Cr.)</t>
-  </si>
-  <si>
-    <t>Net Sales/Income from operations</t>
-  </si>
-  <si>
-    <t>Total Income From Operations</t>
-  </si>
-  <si>
-    <t>Increase/Decrease in Stocks</t>
-  </si>
-  <si>
-    <t>Employees Cost</t>
-  </si>
-  <si>
-    <t>Depreciation</t>
-  </si>
-  <si>
-    <t>Other Expenses</t>
-  </si>
-  <si>
-    <t>P/L Before Other Inc. , Int., Excpt. Items &amp; Tax</t>
-  </si>
-  <si>
-    <t>Other Income</t>
-  </si>
-  <si>
-    <t>P/L Before Int., Excpt. Items &amp; Tax</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>P/L Before Exceptional Items &amp; Tax</t>
-  </si>
-  <si>
-    <t>P/L Before Tax</t>
-  </si>
-  <si>
-    <t>Tax</t>
-  </si>
-  <si>
-    <t>P/L After Tax from Ordinary Activities</t>
-  </si>
-  <si>
-    <t>Net Profit/(Loss) For the Period</t>
-  </si>
-  <si>
-    <t>Equity Share Capital</t>
-  </si>
-  <si>
-    <t>Reserves Excluding Revaluation Reserves</t>
-  </si>
-  <si>
-    <t>Basic EPS</t>
-  </si>
-  <si>
-    <t>Diluted EPS</t>
-  </si>
-  <si>
-    <t>Basic EPS.</t>
-  </si>
-  <si>
-    <t>Diluted EPS.</t>
-  </si>
-  <si>
-    <t>No Of Shares (Crores)</t>
-  </si>
-  <si>
-    <t>Share Holding (%)</t>
-  </si>
-  <si>
-    <t>Mar '00</t>
-  </si>
-  <si>
-    <t>Mar '01</t>
-  </si>
-  <si>
-    <t>Mar '02</t>
-  </si>
-  <si>
-    <t>Mar '03</t>
-  </si>
-  <si>
-    <t>Mar '04</t>
-  </si>
-  <si>
-    <t>Mar '05</t>
-  </si>
-  <si>
-    <t>Mar '06</t>
-  </si>
-  <si>
-    <t>Mar '07</t>
-  </si>
-  <si>
-    <t>Mar '08</t>
-  </si>
-  <si>
-    <t>Mar '09</t>
-  </si>
-  <si>
-    <t>Mar '10</t>
-  </si>
-  <si>
-    <t>Mar '11</t>
-  </si>
-  <si>
-    <t>Mar '12</t>
-  </si>
-  <si>
-    <t>Mar '13</t>
-  </si>
-  <si>
-    <t>Mar '14</t>
-  </si>
-  <si>
-    <t>Mar '15</t>
-  </si>
-  <si>
-    <t>Mar '16</t>
-  </si>
-  <si>
-    <t>Mar '17</t>
-  </si>
-  <si>
-    <t>Mar '18</t>
-  </si>
-  <si>
-    <t>Mar '19</t>
-  </si>
-  <si>
-    <t>Mar '20</t>
-  </si>
-  <si>
-    <t>Mar '21</t>
-  </si>
-  <si>
-    <t>Mar '22</t>
-  </si>
-  <si>
-    <t>Mar '23</t>
-  </si>
-  <si>
-    <t>Mar '24</t>
-  </si>
-  <si>
-    <t>11.94</t>
-  </si>
-  <si>
-    <t>15.61</t>
-  </si>
-  <si>
-    <t>9.95</t>
-  </si>
-  <si>
-    <t>9.53</t>
-  </si>
-  <si>
-    <t>10.84</t>
-  </si>
-  <si>
-    <t>12.18</t>
-  </si>
-  <si>
-    <t>12.22</t>
-  </si>
-  <si>
-    <t>16.15</t>
-  </si>
-  <si>
-    <t>19.66</t>
-  </si>
-  <si>
-    <t>25.86</t>
-  </si>
-  <si>
-    <t>25.79</t>
-  </si>
-  <si>
-    <t>40.48</t>
-  </si>
-  <si>
-    <t>17.81</t>
-  </si>
-  <si>
-    <t>16.94</t>
-  </si>
-  <si>
-    <t>16.05</t>
-  </si>
-  <si>
-    <t>18.43</t>
-  </si>
-  <si>
-    <t>18.51</t>
-  </si>
-  <si>
-    <t>21.64</t>
-  </si>
-  <si>
-    <t>22.60</t>
-  </si>
-  <si>
-    <t>25.82</t>
-  </si>
-  <si>
-    <t>25.02</t>
-  </si>
-  <si>
-    <t>27.31</t>
-  </si>
-  <si>
-    <t>29.79</t>
-  </si>
-  <si>
-    <t>34.58</t>
-  </si>
-  <si>
-    <t>42.62</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -276,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -592,1938 +420,2092 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Yearly Results of IZMO(in Rs. Cr.)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Net Sales/Income from operations</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Total Income From Operations</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Increase/Decrease in Stocks</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Employees Cost</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Depreciation</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Other Expenses</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>P/L Before Other Inc. , Int., Excpt. Items &amp; Tax</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Other Income</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>P/L Before Int., Excpt. Items &amp; Tax</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Interest</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>P/L Before Exceptional Items &amp; Tax</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>P/L Before Tax</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Tax</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>P/L After Tax from Ordinary Activities</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Net Profit/(Loss) For the Period</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Equity Share Capital</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Reserves Excluding Revaluation Reserves</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Basic EPS</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Diluted EPS</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Basic EPS.</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Diluted EPS.</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>No Of Shares (Crores)</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Share Holding (%)</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:24">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Mar '00</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>11.94</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>11.94</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>-0.04</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>10.79</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>0.44</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>9.09</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>2.41</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>0.77</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>3.18</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>2.49</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>2.49</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>0.16</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="n">
         <v>2.33</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <v>2.33</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="n">
         <v>5.19</v>
       </c>
-      <c r="R2">
+      <c r="R2" t="n">
         <v>5.19</v>
       </c>
-      <c r="S2">
-        <v>0.39</v>
-      </c>
-      <c r="T2">
-        <v>0.39</v>
-      </c>
-      <c r="U2">
-        <v>0.39</v>
-      </c>
-      <c r="V2">
-        <v>0.39</v>
-      </c>
-      <c r="W2">
+      <c r="S2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="W2" t="n">
         <v>0.71</v>
       </c>
-      <c r="X2">
+      <c r="X2" t="n">
         <v>73.84999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Mar '01</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>15.61</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>15.61</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>-0.67</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>0.86</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>0.47</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>3.74</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>1.85</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>0.45</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>2.3</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>0.67</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>1.62</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>1.62</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="n">
         <v>0.02</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="n">
         <v>1.6</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="n">
         <v>1.6</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="n">
         <v>5.29</v>
       </c>
-      <c r="R3">
+      <c r="R3" t="n">
         <v>7.8</v>
       </c>
-      <c r="S3">
-        <v>0.39</v>
-      </c>
-      <c r="T3">
-        <v>0.39</v>
-      </c>
-      <c r="U3">
-        <v>0.39</v>
-      </c>
-      <c r="V3">
-        <v>0.39</v>
-      </c>
-      <c r="W3">
+      <c r="S3" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="W3" t="n">
         <v>0.36</v>
       </c>
-      <c r="X3">
+      <c r="X3" t="n">
         <v>68.27</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Mar '02</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>9.949999999999999</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>-0.03</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>0.92</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>0.84</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>9.09</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>-1.99</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>0.28</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>-1.71</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>1.29</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>-3</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>-3</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="n">
         <v>0.01</v>
       </c>
-      <c r="O4">
+      <c r="O4" t="n">
         <v>-3.01</v>
       </c>
-      <c r="P4">
+      <c r="P4" t="n">
         <v>-3.01</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="n">
         <v>5.29</v>
       </c>
-      <c r="R4">
+      <c r="R4" t="n">
         <v>4.33</v>
       </c>
-      <c r="S4">
-        <v>0.39</v>
-      </c>
-      <c r="T4">
-        <v>0.39</v>
-      </c>
-      <c r="U4">
-        <v>0.39</v>
-      </c>
-      <c r="V4">
-        <v>0.39</v>
-      </c>
-      <c r="W4">
+      <c r="S4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="W4" t="n">
         <v>0.36</v>
       </c>
-      <c r="X4">
+      <c r="X4" t="n">
         <v>68.27</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Mar '03</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>9.529999999999999</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>0.26</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>0.92</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>0.68</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>7.59</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>-1.66</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>0.03</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>-1.63</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>1.51</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="n">
         <v>-3.14</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="n">
         <v>-3.14</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="n">
         <v>0.23</v>
       </c>
-      <c r="O5">
+      <c r="O5" t="n">
         <v>-3.14</v>
       </c>
-      <c r="P5">
+      <c r="P5" t="n">
         <v>-3.14</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" t="n">
         <v>5.79</v>
       </c>
-      <c r="R5">
+      <c r="R5" t="n">
         <v>1.71</v>
       </c>
-      <c r="S5">
-        <v>0.39</v>
-      </c>
-      <c r="T5">
-        <v>0.39</v>
-      </c>
-      <c r="U5">
-        <v>0.39</v>
-      </c>
-      <c r="V5">
-        <v>0.39</v>
-      </c>
-      <c r="W5">
+      <c r="S5" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="W5" t="n">
         <v>0.37</v>
       </c>
-      <c r="X5">
+      <c r="X5" t="n">
         <v>63.74</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Mar '04</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>10.84</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>-0.39</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>1.06</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>0.9</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>6.72</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>-0.86</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>0.01</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>-0.85</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>1.89</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="n">
         <v>-2.74</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="n">
         <v>-2.74</v>
       </c>
-      <c r="N6">
+      <c r="N6" t="n">
         <v>0.23</v>
       </c>
-      <c r="O6">
+      <c r="O6" t="n">
         <v>-2.74</v>
       </c>
-      <c r="P6">
+      <c r="P6" t="n">
         <v>-2.74</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" t="n">
         <v>5.79</v>
       </c>
-      <c r="R6">
+      <c r="R6" t="n">
         <v>-3.96</v>
       </c>
-      <c r="S6">
-        <v>0.39</v>
-      </c>
-      <c r="T6">
-        <v>0.39</v>
-      </c>
-      <c r="U6">
-        <v>0.39</v>
-      </c>
-      <c r="V6">
-        <v>0.39</v>
-      </c>
-      <c r="W6">
+      <c r="S6" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="W6" t="n">
         <v>0.37</v>
       </c>
-      <c r="X6">
+      <c r="X6" t="n">
         <v>63.74</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Mar '05</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>12.18</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>0.46</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>1.97</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>0.95</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>5.49</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>3.31</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>0.02</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>3.33</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>1.2</v>
       </c>
-      <c r="L7">
+      <c r="L7" t="n">
         <v>2.14</v>
       </c>
-      <c r="M7">
+      <c r="M7" t="n">
         <v>2.14</v>
       </c>
-      <c r="N7">
+      <c r="N7" t="n">
         <v>0.23</v>
       </c>
-      <c r="O7">
+      <c r="O7" t="n">
         <v>2.14</v>
       </c>
-      <c r="P7">
+      <c r="P7" t="n">
         <v>2.14</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" t="n">
         <v>6.32</v>
       </c>
-      <c r="R7">
+      <c r="R7" t="n">
         <v>-0.85</v>
       </c>
-      <c r="S7">
-        <v>0.39</v>
-      </c>
-      <c r="T7">
-        <v>0.39</v>
-      </c>
-      <c r="U7">
-        <v>0.39</v>
-      </c>
-      <c r="V7">
-        <v>0.39</v>
-      </c>
-      <c r="W7">
+      <c r="S7" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="W7" t="n">
         <v>0.43</v>
       </c>
-      <c r="X7">
+      <c r="X7" t="n">
         <v>67.28</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8">
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Mar '06</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>12.22</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>12.22</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>-0.5600000000000001</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>2.73</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>0.8</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>4.73</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>4.52</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>1.18</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="n">
         <v>5.7</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="n">
         <v>1.37</v>
       </c>
-      <c r="L8">
+      <c r="L8" t="n">
         <v>4.32</v>
       </c>
-      <c r="M8">
+      <c r="M8" t="n">
         <v>4.32</v>
       </c>
-      <c r="N8">
+      <c r="N8" t="n">
         <v>0.23</v>
       </c>
-      <c r="O8">
+      <c r="O8" t="n">
         <v>4.32</v>
       </c>
-      <c r="P8">
+      <c r="P8" t="n">
         <v>4.32</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" t="n">
         <v>7.07</v>
       </c>
-      <c r="R8">
+      <c r="R8" t="n">
         <v>6.81</v>
       </c>
-      <c r="S8">
-        <v>0.39</v>
-      </c>
-      <c r="T8">
-        <v>0.39</v>
-      </c>
-      <c r="U8">
-        <v>0.39</v>
-      </c>
-      <c r="V8">
-        <v>0.39</v>
-      </c>
-      <c r="W8">
+      <c r="S8" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="W8" t="n">
         <v>0.51</v>
       </c>
-      <c r="X8">
+      <c r="X8" t="n">
         <v>72.39</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9">
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Mar '07</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>16.15</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>16.15</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>-1.58</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>4.61</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>1.3</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>6.88</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>4.94</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>1.92</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="n">
         <v>6.87</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <v>1.03</v>
       </c>
-      <c r="L9">
+      <c r="L9" t="n">
         <v>5.84</v>
       </c>
-      <c r="M9">
+      <c r="M9" t="n">
         <v>5.84</v>
       </c>
-      <c r="N9">
+      <c r="N9" t="n">
         <v>0.03</v>
       </c>
-      <c r="O9">
+      <c r="O9" t="n">
         <v>5.81</v>
       </c>
-      <c r="P9">
+      <c r="P9" t="n">
         <v>5.81</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" t="n">
         <v>8.529999999999999</v>
       </c>
-      <c r="R9">
+      <c r="R9" t="n">
         <v>45.21</v>
       </c>
-      <c r="S9">
-        <v>0.39</v>
-      </c>
-      <c r="T9">
-        <v>0.39</v>
-      </c>
-      <c r="U9">
-        <v>0.39</v>
-      </c>
-      <c r="V9">
-        <v>0.39</v>
-      </c>
-      <c r="W9">
+      <c r="S9" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="W9" t="n">
         <v>0.63</v>
       </c>
-      <c r="X9">
+      <c r="X9" t="n">
         <v>74.04000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10">
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Mar '08</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>19.66</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>19.66</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>-1.92</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>9.029999999999999</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>1.14</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>8.08</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>3.33</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>4.95</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="n">
         <v>8.27</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <v>0.72</v>
       </c>
-      <c r="L10">
+      <c r="L10" t="n">
         <v>7.56</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="n">
         <v>7.56</v>
       </c>
-      <c r="N10">
+      <c r="N10" t="n">
         <v>0.58</v>
       </c>
-      <c r="O10">
+      <c r="O10" t="n">
         <v>6.97</v>
       </c>
-      <c r="P10">
+      <c r="P10" t="n">
         <v>6.97</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" t="n">
         <v>12.25</v>
       </c>
-      <c r="R10">
+      <c r="R10" t="n">
         <v>150.83</v>
       </c>
-      <c r="S10">
-        <v>0.39</v>
-      </c>
-      <c r="T10">
-        <v>0.39</v>
-      </c>
-      <c r="U10">
-        <v>0.39</v>
-      </c>
-      <c r="V10">
-        <v>0.39</v>
-      </c>
-      <c r="W10">
+      <c r="S10" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="W10" t="n">
         <v>0.98</v>
       </c>
-      <c r="X10">
+      <c r="X10" t="n">
         <v>79.95999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11">
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Mar '09</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>25.86</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>25.86</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>-1.54</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>12.15</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>1.5</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>8.130000000000001</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>5.62</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>7.34</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="n">
         <v>12.96</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <v>0.63</v>
       </c>
-      <c r="L11">
+      <c r="L11" t="n">
         <v>12.33</v>
       </c>
-      <c r="M11">
+      <c r="M11" t="n">
         <v>12.33</v>
       </c>
-      <c r="N11">
+      <c r="N11" t="n">
         <v>0.47</v>
       </c>
-      <c r="O11">
+      <c r="O11" t="n">
         <v>11.87</v>
       </c>
-      <c r="P11">
+      <c r="P11" t="n">
         <v>8.369999999999999</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" t="n">
         <v>12.05</v>
       </c>
-      <c r="R11">
+      <c r="R11" t="n">
         <v>147.38</v>
       </c>
-      <c r="S11">
-        <v>0.39</v>
-      </c>
-      <c r="T11">
-        <v>0.39</v>
-      </c>
-      <c r="U11">
-        <v>0.39</v>
-      </c>
-      <c r="V11">
-        <v>0.39</v>
-      </c>
-      <c r="W11">
+      <c r="S11" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="W11" t="n">
         <v>0.95</v>
       </c>
-      <c r="X11">
+      <c r="X11" t="n">
         <v>77.40000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12">
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Mar '10</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>25.79</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
         <v>25.79</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>4.47</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>13.34</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>1.49</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>9.359999999999999</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="n">
         <v>-2.87</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="n">
         <v>6.02</v>
       </c>
-      <c r="J12">
+      <c r="J12" t="n">
         <v>3.15</v>
       </c>
-      <c r="K12">
+      <c r="K12" t="n">
         <v>0.58</v>
       </c>
-      <c r="L12">
+      <c r="L12" t="n">
         <v>2.57</v>
       </c>
-      <c r="M12">
+      <c r="M12" t="n">
         <v>2.57</v>
       </c>
-      <c r="N12">
+      <c r="N12" t="n">
         <v>0.31</v>
       </c>
-      <c r="O12">
+      <c r="O12" t="n">
         <v>2.26</v>
       </c>
-      <c r="P12">
+      <c r="P12" t="n">
         <v>1.43</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" t="n">
         <v>12.1</v>
       </c>
-      <c r="R12">
+      <c r="R12" t="n">
         <v>149.85</v>
       </c>
-      <c r="S12">
-        <v>0.39</v>
-      </c>
-      <c r="T12">
-        <v>0.39</v>
-      </c>
-      <c r="U12">
-        <v>0.39</v>
-      </c>
-      <c r="V12">
-        <v>0.39</v>
-      </c>
-      <c r="W12">
+      <c r="S12" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="W12" t="n">
         <v>0.95</v>
       </c>
-      <c r="X12">
+      <c r="X12" t="n">
         <v>78.67</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13">
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Mar '11</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>40.48</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
         <v>40.48</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>0.65</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>10.71</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>1.14</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="n">
         <v>26.69</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="n">
         <v>1.3</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="n">
         <v>2.67</v>
       </c>
-      <c r="J13">
+      <c r="J13" t="n">
         <v>3.97</v>
       </c>
-      <c r="K13">
+      <c r="K13" t="n">
         <v>0.59</v>
       </c>
-      <c r="L13">
+      <c r="L13" t="n">
         <v>3.38</v>
       </c>
-      <c r="M13">
+      <c r="M13" t="n">
         <v>3.38</v>
       </c>
-      <c r="N13">
+      <c r="N13" t="n">
         <v>0.23</v>
       </c>
-      <c r="O13">
+      <c r="O13" t="n">
         <v>3.38</v>
       </c>
-      <c r="P13">
+      <c r="P13" t="n">
         <v>3.38</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" t="n">
         <v>12.1</v>
       </c>
-      <c r="R13">
+      <c r="R13" t="n">
         <v>151.33</v>
       </c>
-      <c r="S13">
+      <c r="S13" t="n">
         <v>1.23</v>
       </c>
-      <c r="T13">
+      <c r="T13" t="n">
         <v>1.23</v>
       </c>
-      <c r="U13">
+      <c r="U13" t="n">
         <v>1.23</v>
       </c>
-      <c r="V13">
+      <c r="V13" t="n">
         <v>1.23</v>
       </c>
-      <c r="W13">
+      <c r="W13" t="n">
         <v>0.95</v>
       </c>
-      <c r="X13">
+      <c r="X13" t="n">
         <v>78.51000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
-      <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14">
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Mar '12</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>17.81</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
         <v>17.81</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>0.03</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>8.06</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="n">
         <v>0.83</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="n">
         <v>6.84</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="n">
         <v>2.06</v>
       </c>
-      <c r="I14">
+      <c r="I14" t="n">
         <v>2.29</v>
       </c>
-      <c r="J14">
+      <c r="J14" t="n">
         <v>4.35</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="n">
         <v>1.44</v>
       </c>
-      <c r="L14">
+      <c r="L14" t="n">
         <v>2.91</v>
       </c>
-      <c r="M14">
+      <c r="M14" t="n">
         <v>2.91</v>
       </c>
-      <c r="N14">
+      <c r="N14" t="n">
         <v>0.23</v>
       </c>
-      <c r="O14">
+      <c r="O14" t="n">
         <v>2.91</v>
       </c>
-      <c r="P14">
+      <c r="P14" t="n">
         <v>2.91</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" t="n">
         <v>12.1</v>
       </c>
-      <c r="R14">
+      <c r="R14" t="n">
         <v>100.97</v>
       </c>
-      <c r="S14">
+      <c r="S14" t="n">
         <v>2.4</v>
       </c>
-      <c r="T14">
+      <c r="T14" t="n">
         <v>2.4</v>
       </c>
-      <c r="U14">
+      <c r="U14" t="n">
         <v>2.4</v>
       </c>
-      <c r="V14">
+      <c r="V14" t="n">
         <v>2.4</v>
       </c>
-      <c r="W14">
+      <c r="W14" t="n">
         <v>0.97</v>
       </c>
-      <c r="X14">
+      <c r="X14" t="n">
         <v>80.15000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
-      <c r="A15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15">
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Mar '13</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>16.94</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
         <v>21.51</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>-0.02</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>7.3</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="n">
         <v>0.63</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="n">
         <v>4.7</v>
       </c>
-      <c r="H15">
+      <c r="H15" t="n">
         <v>8.9</v>
       </c>
-      <c r="I15">
+      <c r="I15" t="n">
         <v>2.15</v>
       </c>
-      <c r="J15">
+      <c r="J15" t="n">
         <v>8.9</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="n">
         <v>1.48</v>
       </c>
-      <c r="L15">
+      <c r="L15" t="n">
         <v>7.41</v>
       </c>
-      <c r="M15">
+      <c r="M15" t="n">
         <v>1.21</v>
       </c>
-      <c r="N15">
+      <c r="N15" t="n">
         <v>0.47</v>
       </c>
-      <c r="O15">
+      <c r="O15" t="n">
         <v>0.74</v>
       </c>
-      <c r="P15">
+      <c r="P15" t="n">
         <v>0.74</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" t="n">
         <v>12.1</v>
       </c>
-      <c r="R15">
+      <c r="R15" t="n">
         <v>100.97</v>
       </c>
-      <c r="S15">
+      <c r="S15" t="n">
         <v>0.61</v>
       </c>
-      <c r="T15">
+      <c r="T15" t="n">
         <v>0.61</v>
       </c>
-      <c r="U15">
+      <c r="U15" t="n">
         <v>0.61</v>
       </c>
-      <c r="V15">
+      <c r="V15" t="n">
         <v>0.61</v>
       </c>
-      <c r="W15">
+      <c r="W15" t="n">
         <v>0.98</v>
       </c>
-      <c r="X15">
+      <c r="X15" t="n">
         <v>81.02</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
-      <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16">
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Mar '14</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>16.05</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
         <v>16.05</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>-0.01</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>6.11</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="n">
         <v>5.51</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="n">
         <v>4.67</v>
       </c>
-      <c r="H16">
+      <c r="H16" t="n">
         <v>-0.22</v>
       </c>
-      <c r="I16">
+      <c r="I16" t="n">
         <v>2.44</v>
       </c>
-      <c r="J16">
+      <c r="J16" t="n">
         <v>2.22</v>
       </c>
-      <c r="K16">
+      <c r="K16" t="n">
         <v>1.85</v>
       </c>
-      <c r="L16">
+      <c r="L16" t="n">
         <v>0.37</v>
       </c>
-      <c r="M16">
+      <c r="M16" t="n">
         <v>0.28</v>
       </c>
-      <c r="N16">
+      <c r="N16" t="n">
         <v>0.08</v>
       </c>
-      <c r="O16">
+      <c r="O16" t="n">
         <v>0.2</v>
       </c>
-      <c r="P16">
+      <c r="P16" t="n">
         <v>0.2</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" t="n">
         <v>12.1</v>
       </c>
-      <c r="R16">
+      <c r="R16" t="n">
         <v>150.5</v>
       </c>
-      <c r="S16">
+      <c r="S16" t="n">
         <v>0.12</v>
       </c>
-      <c r="T16">
+      <c r="T16" t="n">
         <v>0.12</v>
       </c>
-      <c r="U16">
+      <c r="U16" t="n">
         <v>0.12</v>
       </c>
-      <c r="V16">
+      <c r="V16" t="n">
         <v>0.12</v>
       </c>
-      <c r="W16">
+      <c r="W16" t="n">
         <v>0.97</v>
       </c>
-      <c r="X16">
+      <c r="X16" t="n">
         <v>80.58</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17">
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Mar '15</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>18.43</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
         <v>18.43</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>0.03</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>8.08</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="n">
         <v>5.81</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="n">
         <v>4.48</v>
       </c>
-      <c r="H17">
+      <c r="H17" t="n">
         <v>0.04</v>
       </c>
-      <c r="I17">
+      <c r="I17" t="n">
         <v>1.88</v>
       </c>
-      <c r="J17">
+      <c r="J17" t="n">
         <v>1.92</v>
       </c>
-      <c r="K17">
+      <c r="K17" t="n">
         <v>1.88</v>
       </c>
-      <c r="L17">
+      <c r="L17" t="n">
         <v>0.04</v>
       </c>
-      <c r="M17">
+      <c r="M17" t="n">
         <v>0.04</v>
       </c>
-      <c r="N17">
+      <c r="N17" t="n">
         <v>-0.23</v>
       </c>
-      <c r="O17">
+      <c r="O17" t="n">
         <v>0.26</v>
       </c>
-      <c r="P17">
+      <c r="P17" t="n">
         <v>0.26</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" t="n">
         <v>12.1</v>
       </c>
-      <c r="R17">
+      <c r="R17" t="n">
         <v>100.97</v>
       </c>
-      <c r="S17">
+      <c r="S17" t="n">
         <v>0.22</v>
       </c>
-      <c r="T17">
+      <c r="T17" t="n">
         <v>0.22</v>
       </c>
-      <c r="U17">
+      <c r="U17" t="n">
         <v>0.22</v>
       </c>
-      <c r="V17">
+      <c r="V17" t="n">
         <v>0.22</v>
       </c>
-      <c r="W17">
+      <c r="W17" t="n">
         <v>0.89</v>
       </c>
-      <c r="X17">
+      <c r="X17" t="n">
         <v>73.76000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
-      <c r="A18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18">
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Mar '16</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>18.51</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
         <v>18.51</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>-0.01</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="n">
         <v>5.7</v>
       </c>
-      <c r="G18">
+      <c r="G18" t="n">
         <v>6.16</v>
       </c>
-      <c r="H18">
+      <c r="H18" t="n">
         <v>-2.31</v>
       </c>
-      <c r="I18">
+      <c r="I18" t="n">
         <v>2.51</v>
       </c>
-      <c r="J18">
+      <c r="J18" t="n">
         <v>0.2</v>
       </c>
-      <c r="K18">
+      <c r="K18" t="n">
         <v>1.88</v>
       </c>
-      <c r="L18">
+      <c r="L18" t="n">
         <v>-1.68</v>
       </c>
-      <c r="M18">
+      <c r="M18" t="n">
         <v>-1.68</v>
       </c>
-      <c r="N18">
+      <c r="N18" t="n">
         <v>-0.61</v>
       </c>
-      <c r="O18">
+      <c r="O18" t="n">
         <v>-1.06</v>
       </c>
-      <c r="P18">
+      <c r="P18" t="n">
         <v>-1.06</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" t="n">
         <v>12.1</v>
       </c>
-      <c r="R18">
+      <c r="R18" t="n">
         <v>149.7</v>
       </c>
-      <c r="S18">
+      <c r="S18" t="n">
         <v>-0.88</v>
       </c>
-      <c r="T18">
+      <c r="T18" t="n">
         <v>-0.88</v>
       </c>
-      <c r="U18">
+      <c r="U18" t="n">
         <v>-0.88</v>
       </c>
-      <c r="V18">
+      <c r="V18" t="n">
         <v>-0.88</v>
       </c>
-      <c r="W18">
+      <c r="W18" t="n">
         <v>0.71</v>
       </c>
-      <c r="X18">
+      <c r="X18" t="n">
         <v>73.84999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
-      <c r="A19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19">
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Mar '17</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>21.64</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
         <v>21.64</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>0.01</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>11.31</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="n">
         <v>5.87</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="n">
         <v>5.68</v>
       </c>
-      <c r="H19">
+      <c r="H19" t="n">
         <v>-1.93</v>
       </c>
-      <c r="I19">
+      <c r="I19" t="n">
         <v>3.39</v>
       </c>
-      <c r="J19">
+      <c r="J19" t="n">
         <v>1.46</v>
       </c>
-      <c r="K19">
+      <c r="K19" t="n">
         <v>1.18</v>
       </c>
-      <c r="L19">
+      <c r="L19" t="n">
         <v>0.28</v>
       </c>
-      <c r="M19">
+      <c r="M19" t="n">
         <v>0.28</v>
       </c>
-      <c r="N19">
+      <c r="N19" t="n">
         <v>-0.78</v>
       </c>
-      <c r="O19">
+      <c r="O19" t="n">
         <v>1.06</v>
       </c>
-      <c r="P19">
+      <c r="P19" t="n">
         <v>1.06</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" t="n">
         <v>12.16</v>
       </c>
-      <c r="R19">
+      <c r="R19" t="n">
         <v>152.41</v>
       </c>
-      <c r="S19">
+      <c r="S19" t="n">
         <v>0.87</v>
       </c>
-      <c r="T19">
+      <c r="T19" t="n">
         <v>0.87</v>
       </c>
-      <c r="U19">
+      <c r="U19" t="n">
         <v>0.87</v>
       </c>
-      <c r="V19">
+      <c r="V19" t="n">
         <v>0.87</v>
       </c>
-      <c r="W19">
+      <c r="W19" t="n">
         <v>0.71</v>
       </c>
-      <c r="X19">
+      <c r="X19" t="n">
         <v>73.84999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
-      <c r="A20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20">
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Mar '18</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>22.60</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
         <v>22.6</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>0.01</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>16.66</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="n">
         <v>1.21</v>
       </c>
-      <c r="G20">
+      <c r="G20" t="n">
         <v>5.97</v>
       </c>
-      <c r="H20">
+      <c r="H20" t="n">
         <v>-1.97</v>
       </c>
-      <c r="I20">
+      <c r="I20" t="n">
         <v>4.63</v>
       </c>
-      <c r="J20">
+      <c r="J20" t="n">
         <v>2.67</v>
       </c>
-      <c r="K20">
+      <c r="K20" t="n">
         <v>1.19</v>
       </c>
-      <c r="L20">
+      <c r="L20" t="n">
         <v>1.48</v>
       </c>
-      <c r="M20">
+      <c r="M20" t="n">
         <v>1.48</v>
       </c>
-      <c r="N20">
+      <c r="N20" t="n">
         <v>0.99</v>
       </c>
-      <c r="O20">
+      <c r="O20" t="n">
         <v>0.5</v>
       </c>
-      <c r="P20">
+      <c r="P20" t="n">
         <v>0.5</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" t="n">
         <v>12.82</v>
       </c>
-      <c r="R20">
+      <c r="R20" t="n">
         <v>155.03</v>
       </c>
-      <c r="S20">
-        <v>0.39</v>
-      </c>
-      <c r="T20">
-        <v>0.39</v>
-      </c>
-      <c r="U20">
-        <v>0.39</v>
-      </c>
-      <c r="V20">
-        <v>0.39</v>
-      </c>
-      <c r="W20">
+      <c r="S20" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="W20" t="n">
         <v>0.71</v>
       </c>
-      <c r="X20">
+      <c r="X20" t="n">
         <v>73.84999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
-      <c r="A21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21">
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Mar '19</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>25.82</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
         <v>25.82</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>-0.05</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>17.19</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="n">
         <v>2.63</v>
       </c>
-      <c r="G21">
+      <c r="G21" t="n">
         <v>5.46</v>
       </c>
-      <c r="H21">
+      <c r="H21" t="n">
         <v>-0.13</v>
       </c>
-      <c r="I21">
+      <c r="I21" t="n">
         <v>2.29</v>
       </c>
-      <c r="J21">
+      <c r="J21" t="n">
         <v>2.16</v>
       </c>
-      <c r="K21">
+      <c r="K21" t="n">
         <v>1.36</v>
       </c>
-      <c r="L21">
+      <c r="L21" t="n">
         <v>0.8</v>
       </c>
-      <c r="M21">
+      <c r="M21" t="n">
         <v>0.8</v>
       </c>
-      <c r="N21">
+      <c r="N21" t="n">
         <v>0.64</v>
       </c>
-      <c r="O21">
+      <c r="O21" t="n">
         <v>0.16</v>
       </c>
-      <c r="P21">
+      <c r="P21" t="n">
         <v>0.16</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" t="n">
         <v>13.07</v>
       </c>
-      <c r="R21">
+      <c r="R21" t="n">
         <v>156.23</v>
       </c>
-      <c r="S21">
+      <c r="S21" t="n">
         <v>0.13</v>
       </c>
-      <c r="T21">
+      <c r="T21" t="n">
         <v>0.13</v>
       </c>
-      <c r="U21">
+      <c r="U21" t="n">
         <v>0.13</v>
       </c>
-      <c r="V21">
+      <c r="V21" t="n">
         <v>0.13</v>
       </c>
-      <c r="W21">
+      <c r="W21" t="n">
         <v>0.71</v>
       </c>
-      <c r="X21">
+      <c r="X21" t="n">
         <v>73.84999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
-      <c r="A22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22">
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Mar '20</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>25.02</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
         <v>25.02</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>-0.04</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>18.26</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="n">
         <v>2.09</v>
       </c>
-      <c r="G22">
+      <c r="G22" t="n">
         <v>4.63</v>
       </c>
-      <c r="H22">
+      <c r="H22" t="n">
         <v>-0.39</v>
       </c>
-      <c r="I22">
+      <c r="I22" t="n">
         <v>2.17</v>
       </c>
-      <c r="J22">
+      <c r="J22" t="n">
         <v>1.78</v>
       </c>
-      <c r="K22">
+      <c r="K22" t="n">
         <v>0.96</v>
       </c>
-      <c r="L22">
+      <c r="L22" t="n">
         <v>0.82</v>
       </c>
-      <c r="M22">
+      <c r="M22" t="n">
         <v>0.82</v>
       </c>
-      <c r="N22">
+      <c r="N22" t="n">
         <v>0.78</v>
       </c>
-      <c r="O22">
+      <c r="O22" t="n">
         <v>0.04</v>
       </c>
-      <c r="P22">
+      <c r="P22" t="n">
         <v>0.04</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" t="n">
         <v>13.07</v>
       </c>
-      <c r="R22">
+      <c r="R22" t="n">
         <v>156.68</v>
       </c>
-      <c r="S22">
+      <c r="S22" t="n">
         <v>0.03</v>
       </c>
-      <c r="T22">
+      <c r="T22" t="n">
         <v>0.03</v>
       </c>
-      <c r="U22">
+      <c r="U22" t="n">
         <v>0.03</v>
       </c>
-      <c r="V22">
+      <c r="V22" t="n">
         <v>0.03</v>
       </c>
-      <c r="W22">
+      <c r="W22" t="n">
         <v>0.71</v>
       </c>
-      <c r="X22">
+      <c r="X22" t="n">
         <v>73.84999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
-      <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23">
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Mar '21</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>27.31</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
         <v>27.31</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="n">
         <v>-0.04</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>18.59</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="n">
         <v>1.02</v>
       </c>
-      <c r="G23">
+      <c r="G23" t="n">
         <v>5.67</v>
       </c>
-      <c r="H23">
+      <c r="H23" t="n">
         <v>-0.16</v>
       </c>
-      <c r="I23">
+      <c r="I23" t="n">
         <v>1.23</v>
       </c>
-      <c r="J23">
+      <c r="J23" t="n">
         <v>1.07</v>
       </c>
-      <c r="K23">
+      <c r="K23" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="L23">
+      <c r="L23" t="n">
         <v>0.26</v>
       </c>
-      <c r="M23">
+      <c r="M23" t="n">
         <v>0.26</v>
       </c>
-      <c r="N23">
+      <c r="N23" t="n">
         <v>0.18</v>
       </c>
-      <c r="O23">
+      <c r="O23" t="n">
         <v>0.08</v>
       </c>
-      <c r="P23">
+      <c r="P23" t="n">
         <v>0.08</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" t="n">
         <v>13.19</v>
       </c>
-      <c r="R23">
+      <c r="R23" t="n">
         <v>156.61</v>
       </c>
-      <c r="S23">
+      <c r="S23" t="n">
         <v>0.06</v>
       </c>
-      <c r="T23">
+      <c r="T23" t="n">
         <v>0.06</v>
       </c>
-      <c r="U23">
+      <c r="U23" t="n">
         <v>0.06</v>
       </c>
-      <c r="V23">
+      <c r="V23" t="n">
         <v>0.06</v>
       </c>
-      <c r="W23">
+      <c r="W23" t="n">
         <v>0.71</v>
       </c>
-      <c r="X23">
+      <c r="X23" t="n">
         <v>73.84999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:24">
-      <c r="A24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24">
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Mar '22</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>29.79</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
         <v>29.79</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>-0.04</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>23.4</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="n">
         <v>1.09</v>
       </c>
-      <c r="G24">
+      <c r="G24" t="n">
         <v>5.16</v>
       </c>
-      <c r="H24">
+      <c r="H24" t="n">
         <v>-0.67</v>
       </c>
-      <c r="I24">
+      <c r="I24" t="n">
         <v>1.16</v>
       </c>
-      <c r="J24">
+      <c r="J24" t="n">
         <v>0.49</v>
       </c>
-      <c r="K24">
+      <c r="K24" t="n">
         <v>0.33</v>
       </c>
-      <c r="L24">
+      <c r="L24" t="n">
         <v>0.16</v>
       </c>
-      <c r="M24">
+      <c r="M24" t="n">
         <v>0.16</v>
       </c>
-      <c r="N24">
+      <c r="N24" t="n">
         <v>0.06</v>
       </c>
-      <c r="O24">
+      <c r="O24" t="n">
         <v>0.1</v>
       </c>
-      <c r="P24">
+      <c r="P24" t="n">
         <v>0.1</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" t="n">
         <v>13.36</v>
       </c>
-      <c r="R24">
+      <c r="R24" t="n">
         <v>157.27</v>
       </c>
-      <c r="S24">
+      <c r="S24" t="n">
         <v>0.08</v>
       </c>
-      <c r="T24">
+      <c r="T24" t="n">
         <v>0.08</v>
       </c>
-      <c r="U24">
+      <c r="U24" t="n">
         <v>0.08</v>
       </c>
-      <c r="V24">
+      <c r="V24" t="n">
         <v>0.08</v>
       </c>
-      <c r="W24">
+      <c r="W24" t="n">
         <v>0.71</v>
       </c>
-      <c r="X24">
+      <c r="X24" t="n">
         <v>73.84999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:24">
-      <c r="A25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25">
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Mar '23</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>34.58</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
         <v>34.58</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="n">
         <v>-0.04</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>27.12</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="n">
         <v>1.38</v>
       </c>
-      <c r="G25">
+      <c r="G25" t="n">
         <v>5.58</v>
       </c>
-      <c r="H25">
+      <c r="H25" t="n">
         <v>-0.12</v>
       </c>
-      <c r="I25">
+      <c r="I25" t="n">
         <v>0.92</v>
       </c>
-      <c r="J25">
+      <c r="J25" t="n">
         <v>0.8</v>
       </c>
-      <c r="K25">
+      <c r="K25" t="n">
         <v>0.09</v>
       </c>
-      <c r="L25">
+      <c r="L25" t="n">
         <v>0.71</v>
       </c>
-      <c r="M25">
+      <c r="M25" t="n">
         <v>0.71</v>
       </c>
-      <c r="N25">
+      <c r="N25" t="n">
         <v>0.54</v>
       </c>
-      <c r="O25">
+      <c r="O25" t="n">
         <v>0.17</v>
       </c>
-      <c r="P25">
+      <c r="P25" t="n">
         <v>0.17</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" t="n">
         <v>13.39</v>
       </c>
-      <c r="R25">
+      <c r="R25" t="n">
         <v>158</v>
       </c>
-      <c r="S25">
+      <c r="S25" t="n">
         <v>0.13</v>
       </c>
-      <c r="T25">
+      <c r="T25" t="n">
         <v>0.13</v>
       </c>
-      <c r="U25">
+      <c r="U25" t="n">
         <v>0.13</v>
       </c>
-      <c r="V25">
+      <c r="V25" t="n">
         <v>0.13</v>
       </c>
-      <c r="W25">
+      <c r="W25" t="n">
         <v>0.71</v>
       </c>
-      <c r="X25">
+      <c r="X25" t="n">
         <v>73.84999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:24">
-      <c r="A26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26">
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Mar '24</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>42.62</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
         <v>42.62</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="n">
         <v>0.05</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="n">
         <v>30.37</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="n">
         <v>1.43</v>
       </c>
-      <c r="G26">
+      <c r="G26" t="n">
         <v>6.61</v>
       </c>
-      <c r="H26">
+      <c r="H26" t="n">
         <v>0.09</v>
       </c>
-      <c r="I26">
+      <c r="I26" t="n">
         <v>1.14</v>
       </c>
-      <c r="J26">
+      <c r="J26" t="n">
         <v>1.23</v>
       </c>
-      <c r="K26">
+      <c r="K26" t="n">
         <v>0.28</v>
       </c>
-      <c r="L26">
+      <c r="L26" t="n">
         <v>0.95</v>
       </c>
-      <c r="M26">
+      <c r="M26" t="n">
         <v>0.95</v>
       </c>
-      <c r="N26">
+      <c r="N26" t="n">
         <v>0.76</v>
       </c>
-      <c r="O26">
+      <c r="O26" t="n">
         <v>0.19</v>
       </c>
-      <c r="P26">
+      <c r="P26" t="n">
         <v>0.19</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" t="n">
         <v>14.11</v>
       </c>
-      <c r="R26">
+      <c r="R26" t="n">
         <v>163.29</v>
       </c>
-      <c r="S26">
+      <c r="S26" t="n">
         <v>0.14</v>
       </c>
-      <c r="T26">
+      <c r="T26" t="n">
         <v>0.14</v>
       </c>
-      <c r="U26">
+      <c r="U26" t="n">
         <v>0.14</v>
       </c>
-      <c r="V26">
+      <c r="V26" t="n">
         <v>0.14</v>
       </c>
-      <c r="W26">
+      <c r="W26" t="n">
         <v>0.71</v>
       </c>
-      <c r="X26">
+      <c r="X26" t="n">
         <v>73.84999999999999</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>